--- a/test_cases/PE-53/TC-17-Nueva contraseña.xlsx
+++ b/test_cases/PE-53/TC-17-Nueva contraseña.xlsx
@@ -5,27 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Desktop\casos de prueba\PE-53\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-53\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7304A0DD-2CD2-44A7-8F29-94CCAFAA57D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2304583-66C4-484F-BD5B-572B5B2A0BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -87,9 +95,6 @@
     <t>Valido</t>
   </si>
   <si>
-    <t>Edad = 31/12/2000</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -100,21 +105,6 @@
   </si>
   <si>
     <t>Pass = Hola123!!</t>
-  </si>
-  <si>
-    <t>Dni = 40678953</t>
-  </si>
-  <si>
-    <t>Title = Mr.</t>
-  </si>
-  <si>
-    <t>ingresar Dni</t>
-  </si>
-  <si>
-    <t>ingresar Edad</t>
-  </si>
-  <si>
-    <t>Seleccionar title</t>
   </si>
   <si>
     <t>Clickear 'SAVE'</t>
@@ -176,13 +166,19 @@
   </si>
   <si>
     <t>ingresar confirmacion de contraseña3</t>
+  </si>
+  <si>
+    <t>ingresar en your profile</t>
+  </si>
+  <si>
+    <t>ingresar en change Password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +273,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -560,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -665,6 +669,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -701,33 +729,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,33 +1021,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-    </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>3</v>
@@ -1045,12 +1056,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="30" t="s">
@@ -1060,18 +1071,18 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -1085,7 +1096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -1095,87 +1106,74 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="E8" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="E9" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="59"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D11" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32.5" x14ac:dyDescent="0.35">
       <c r="D12" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="32.5" x14ac:dyDescent="0.35">
       <c r="D13" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
-      <c r="D14" s="18">
-        <v>7</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
-      <c r="D15" s="18">
-        <v>8</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="32.5" x14ac:dyDescent="0.35">
-      <c r="D16" s="18">
-        <v>9</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D14" s="56"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D15" s="56"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D17" s="23"/>
@@ -1187,28 +1185,28 @@
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="B19" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="32"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
     </row>
     <row r="21" spans="1:5" ht="24" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="43"/>
+      <c r="B21" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="51"/>
       <c r="D21" s="14" t="s">
         <v>14</v>
       </c>
@@ -1220,23 +1218,23 @@
       <c r="A23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="47"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E23" s="55"/>
+    </row>
+    <row r="24" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>1</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="35"/>
+      <c r="B24" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="37"/>
       <c r="D24" s="34" t="s">
         <v>19</v>
       </c>
@@ -1246,12 +1244,12 @@
       <c r="A25" s="11">
         <v>2</v>
       </c>
-      <c r="B25" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="55"/>
+      <c r="B25" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="37"/>
       <c r="D25" s="34" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E25" s="35"/>
     </row>
@@ -1259,10 +1257,10 @@
       <c r="A26" s="11">
         <v>3</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="35"/>
+      <c r="B26" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="37"/>
       <c r="D26" s="34" t="s">
         <v>19</v>
       </c>
@@ -1272,25 +1270,25 @@
       <c r="A27" s="11">
         <v>4</v>
       </c>
-      <c r="B27" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="35"/>
+      <c r="B27" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>5</v>
       </c>
-      <c r="B28" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="55"/>
+      <c r="B28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="37"/>
       <c r="D28" s="34" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E28" s="35"/>
     </row>
@@ -1298,12 +1296,12 @@
       <c r="A29" s="11">
         <v>6</v>
       </c>
-      <c r="B29" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="55"/>
+      <c r="B29" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="37"/>
       <c r="D29" s="34" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E29" s="35"/>
     </row>
@@ -1311,23 +1309,23 @@
       <c r="A30" s="33">
         <v>7</v>
       </c>
-      <c r="B30" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="52"/>
+      <c r="B30" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>5</v>
       </c>
-      <c r="B31" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="55"/>
+      <c r="B31" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="37"/>
       <c r="D31" s="34" t="s">
         <v>19</v>
       </c>
@@ -1337,12 +1335,12 @@
       <c r="A32" s="11">
         <v>6</v>
       </c>
-      <c r="B32" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="55"/>
+      <c r="B32" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="37"/>
       <c r="D32" s="34" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E32" s="35"/>
     </row>
@@ -1350,53 +1348,23 @@
       <c r="A33" s="33">
         <v>7</v>
       </c>
-      <c r="B33" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="56"/>
+      <c r="B33" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="11">
-        <v>5</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="35"/>
+      <c r="A34" s="57"/>
     </row>
     <row r="35" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11">
-        <v>6</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="35"/>
+      <c r="A35" s="57"/>
     </row>
     <row r="36" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="33">
-        <v>7</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="52"/>
+      <c r="A36" s="58"/>
     </row>
     <row r="37" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1404,48 +1372,42 @@
     <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="24"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
     </row>
     <row r="43" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B19:E20"/>
+  <mergeCells count="27">
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test_cases/PE-53/TC-17-Nueva contraseña.xlsx
+++ b/test_cases/PE-53/TC-17-Nueva contraseña.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-53\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2304583-66C4-484F-BD5B-572B5B2A0BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA645787-3BD7-486F-AD1A-2CBD8D2EF5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>ingresar en your profile</t>
-  </si>
-  <si>
-    <t>ingresar en change Password</t>
   </si>
 </sst>
 </file>
@@ -564,7 +561,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -663,36 +660,61 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -711,34 +733,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1039,8 +1033,8 @@
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1137,15 +1131,13 @@
       <c r="E10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="59"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="D11" s="18">
         <v>5</v>
       </c>
@@ -1170,10 +1162,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D14" s="56"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D15" s="56"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D17" s="23"/>
@@ -1185,28 +1177,28 @@
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="32"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
     </row>
     <row r="21" spans="1:5" ht="24" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="14" t="s">
         <v>14</v>
       </c>
@@ -1218,153 +1210,153 @@
       <c r="A23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="55"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>1</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="52"/>
+      <c r="D24" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="35"/>
-    </row>
-    <row r="25" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="38"/>
+    </row>
+    <row r="25" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>2</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="35"/>
-    </row>
-    <row r="26" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="38"/>
+    </row>
+    <row r="26" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>3</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>4</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="40" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>5</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="34" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="35"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>6</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="34" t="s">
+      <c r="C29" s="52"/>
+      <c r="D29" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="35"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="33">
         <v>7</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="40" t="s">
+      <c r="C30" s="50"/>
+      <c r="D30" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>5</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="34" t="s">
+      <c r="C31" s="52"/>
+      <c r="D31" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="35"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>6</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="34" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="35"/>
+      <c r="E32" s="38"/>
     </row>
     <row r="33" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="33">
         <v>7</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="40" t="s">
+      <c r="C33" s="50"/>
+      <c r="D33" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="40"/>
+      <c r="E33" s="46"/>
     </row>
     <row r="34" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="57"/>
+      <c r="A34" s="34"/>
     </row>
     <row r="35" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="57"/>
+      <c r="A35" s="34"/>
     </row>
     <row r="36" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="58"/>
+      <c r="A36" s="35"/>
     </row>
     <row r="37" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1372,15 +1364,28 @@
     <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="24"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
     </row>
     <row r="43" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
@@ -1389,25 +1394,12 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
